--- a/Data/aearep-21/candidatepackages.xlsx
+++ b/Data/aearep-21/candidatepackages.xlsx
@@ -46,22 +46,22 @@
     <t>centroid</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>semean</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>heart</t>
-  </si>
-  <si>
-    <t>median</t>
   </si>
   <si>
     <t>delta</t>
@@ -250,7 +250,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -262,7 +262,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -274,7 +274,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -286,7 +286,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -298,7 +298,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -310,7 +310,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -322,10 +322,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C9">
-        <v>0.10875331610441208</v>
+        <v>0</v>
       </c>
       <c r="D9"/>
     </row>
@@ -334,10 +334,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C10">
-        <v>0.18136604130268097</v>
+        <v>0.18049587309360504</v>
       </c>
       <c r="D10"/>
     </row>
@@ -346,10 +346,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C11">
-        <v>0.18700265884399414</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D11"/>
     </row>
@@ -358,10 +358,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="C12">
-        <v>0.18766577541828156</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D12"/>
     </row>
@@ -370,10 +370,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="C13">
-        <v>0.20324933528900146</v>
+        <v>0.21388429403305054</v>
       </c>
       <c r="D13"/>
     </row>
@@ -382,10 +382,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C14">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D14"/>
     </row>
@@ -394,10 +394,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1049</v>
+        <v>955</v>
       </c>
       <c r="C15">
-        <v>0.34781166911125183</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D15"/>
     </row>
@@ -406,10 +406,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="C16">
-        <v>0.37566313147544861</v>
+        <v>0.36396694183349609</v>
       </c>
       <c r="D16"/>
     </row>
@@ -418,10 +418,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1194</v>
+        <v>1125</v>
       </c>
       <c r="C17">
-        <v>0.39588859677314758</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D17"/>
     </row>
@@ -430,10 +430,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1472</v>
+        <v>1306</v>
       </c>
       <c r="C18">
-        <v>0.48806366324424744</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D18"/>
     </row>
@@ -442,10 +442,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C19">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D19"/>
     </row>
@@ -454,10 +454,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1963</v>
+        <v>2259</v>
       </c>
       <c r="C20">
-        <v>0.65086209774017334</v>
+        <v>0.74677687883377075</v>
       </c>
       <c r="D20"/>
     </row>
